--- a/test_data/s_same_first_choice.xlsx
+++ b/test_data/s_same_first_choice.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferestigene/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferestigene/Desktop/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C0E223-0C58-0C46-A9D2-2EEF08855B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D7DC22-7C68-6949-8199-CAD8C66EFAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14340" windowHeight="15800" xr2:uid="{EAAED493-4F7D-7340-9F21-3CE104E0C984}"/>
+    <workbookView xWindow="14080" yWindow="500" windowWidth="14340" windowHeight="15800" xr2:uid="{EAAED493-4F7D-7340-9F21-3CE104E0C984}"/>
   </bookViews>
   <sheets>
     <sheet name="Student Preferences" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>s1</t>
   </si>
@@ -72,14 +72,34 @@
   </si>
   <si>
     <t>p2</t>
+  </si>
+  <si>
+    <t>student_names</t>
+  </si>
+  <si>
+    <t>1st_choice</t>
+  </si>
+  <si>
+    <t>2nd_choice</t>
+  </si>
+  <si>
+    <t>3rd_choice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,8 +127,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,31 +444,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F75D1A-E93B-2F4A-9CE8-D30AD076A46F}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -461,49 +485,49 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -517,7 +541,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -531,29 +555,43 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
     </row>
